--- a/Program/Other/L4320_LNW171E底稿(10909調息檔)定期機動.xlsx
+++ b/Program/Other/L4320_LNW171E底稿(10909調息檔)定期機動.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\itxWrite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKL\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Database" localSheetId="0">正常件!$A$1:$M$1</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1091,7 +1091,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
